--- a/biology/Botanique/Fasciation/Fasciation.xlsx
+++ b/biology/Botanique/Fasciation/Fasciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fasciation et la cristation désignent une forme de tératologie végétale qui consiste en la croissance anormale du sommet d'une tige respectivement en forme de faisceau ou de crête.
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méristème, c'est-à-dire le tissu en croissance, se développe normalement sur le point d'extrémité (l'apex) et dans le sens de la croissance, souvent vers le haut. Il produit des tiges plus ou moins cylindriques. En cas de fasciation le développement des tissus se fait dans une autre direction que celui de la croissance, horizontalement par exemple. Il en résulte des tiges en forme de faisceau (fasciation) ou de crêtes (cristation). Elles peuvent aussi être en forme de ruban, boursouflées ou tordues.
 Le phénomène est surtout visible sur les tiges, mais affecte aussi les racines, les fruits ou les boutons floraux.
@@ -545,11 +559,13 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fasciation est un phénomène assez rare mais qui a été observé sur une centaine d'espèces :
-De nombreuses Cactacées : Mammillaria, Rebutia, Opuntia[1], etc.
-des plantes succulentes : Aloes, Euphorbia[1], etc.
+De nombreuses Cactacées : Mammillaria, Rebutia, Opuntia, etc.
+des plantes succulentes : Aloes, Euphorbia, etc.
 des plantes herbacées : Belis, Celosia, Delphinium, Digitalis, Primula, etc.
 des arbres ou arbustes : Salix, Acer, Forsythia, etc.
 Ces formes, parfois appelées « formes monstrueuses » sont appréciées des collectionneurs, car elles ont l'apparence d'espèces différentes et uniques.
